--- a/Week_02/gc-table-data.xlsx
+++ b/Week_02/gc-table-data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="175">
   <si>
     <t>垃圾收集器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,13 +477,135 @@
   </si>
   <si>
     <t>1 young (1024K), 0 survivors (0K)</t>
+  </si>
+  <si>
+    <t>UseSerialGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseConcMarkSweepGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseG1GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2048M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4096M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>RPS</t>
+  </si>
+  <si>
+    <t>Max(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90th Percentile(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95th Percentile(ms) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99th Percentile(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1530.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1812.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1939.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1488.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1780.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1935.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1887.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1926.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2154.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1786.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1778.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1719.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1828.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1601.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +641,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -565,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,13 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -592,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -613,6 +734,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,13 +1077,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="22.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -933,63 +1093,63 @@
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="37" width="9" style="11"/>
+    <col min="12" max="37" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="12"/>
+    <row r="1" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="7"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
+      <c r="B4" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1020,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1234,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1261,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1288,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1155,7 +1315,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1369,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
+      <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -1235,59 +1395,59 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
+    <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -1319,7 +1479,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1506,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1533,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1560,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1587,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1614,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1641,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1668,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1534,60 +1694,60 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13"/>
+    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
-        <v>3</v>
+      <c r="B28" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1618,7 +1778,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1805,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1832,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1859,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1886,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1913,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1780,14 +1940,14 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>135</v>
       </c>
       <c r="G35" t="s">
@@ -1807,14 +1967,14 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G36" t="s">
@@ -1834,14 +1994,14 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G37" t="s">
@@ -1860,54 +2020,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
+    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
-        <v>4</v>
+      <c r="B41" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1924,10 +2084,10 @@
       <c r="G41" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="13"/>
       <c r="J41" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +2096,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B42" s="6"/>
+      <c r="B42" s="14"/>
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -1952,10 +2112,10 @@
       <c r="G42" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="13"/>
       <c r="J42" t="s">
         <v>23</v>
       </c>
@@ -1964,7 +2124,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B43" s="6"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,10 +2137,10 @@
       <c r="G43" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="13"/>
       <c r="J43" t="s">
         <v>23</v>
       </c>
@@ -1989,7 +2149,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B44" s="6"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2173,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B45" s="6"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2197,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B46" s="6"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2224,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B47" s="6"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
@@ -2088,7 +2248,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B48" s="6"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="1" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2272,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B49" s="6"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
@@ -2135,632 +2295,637 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="12"/>
-    </row>
-    <row r="52" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="12"/>
-    </row>
-    <row r="53" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="12"/>
-    </row>
-    <row r="55" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="12"/>
-    </row>
-    <row r="56" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="12"/>
-    </row>
-    <row r="59" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="12"/>
-    </row>
-    <row r="62" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="12"/>
-    </row>
-    <row r="64" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="12"/>
-    </row>
-    <row r="65" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="12"/>
-    </row>
-    <row r="66" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="12"/>
-    </row>
-    <row r="68" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="12"/>
-    </row>
-    <row r="69" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="12"/>
-    </row>
-    <row r="70" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="12"/>
-    </row>
-    <row r="71" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="12"/>
-    </row>
-    <row r="72" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="12"/>
-    </row>
-    <row r="73" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="12"/>
-    </row>
-    <row r="74" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="12"/>
-    </row>
-    <row r="75" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="12"/>
-    </row>
-    <row r="77" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="12"/>
-    </row>
-    <row r="78" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="12"/>
-    </row>
-    <row r="79" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="12"/>
-    </row>
-    <row r="80" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="12"/>
-    </row>
-    <row r="81" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="12"/>
-    </row>
-    <row r="82" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="12"/>
-    </row>
-    <row r="83" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="12"/>
-    </row>
-    <row r="85" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="12"/>
-    </row>
-    <row r="86" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="12"/>
-    </row>
-    <row r="87" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="12"/>
-    </row>
-    <row r="88" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="12"/>
-    </row>
-    <row r="89" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="12"/>
-    </row>
-    <row r="90" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="12"/>
-    </row>
-    <row r="91" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="12"/>
-    </row>
-    <row r="92" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="12"/>
-    </row>
-    <row r="93" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="12"/>
-    </row>
-    <row r="94" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="12"/>
-    </row>
-    <row r="95" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="12"/>
-    </row>
-    <row r="96" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="12"/>
-    </row>
-    <row r="97" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="12"/>
-    </row>
-    <row r="98" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="12"/>
-    </row>
-    <row r="99" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="12"/>
-    </row>
-    <row r="100" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="12"/>
-    </row>
-    <row r="101" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="12"/>
-    </row>
-    <row r="102" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="12"/>
-    </row>
-    <row r="103" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="12"/>
-    </row>
-    <row r="104" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="12"/>
-    </row>
-    <row r="105" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="12"/>
-    </row>
-    <row r="106" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="12"/>
-    </row>
-    <row r="107" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="12"/>
-    </row>
-    <row r="108" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="12"/>
-    </row>
-    <row r="109" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="12"/>
-    </row>
-    <row r="110" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="12"/>
-    </row>
-    <row r="111" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="12"/>
-    </row>
-    <row r="112" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="12"/>
-    </row>
-    <row r="113" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="12"/>
-    </row>
-    <row r="114" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="12"/>
-    </row>
-    <row r="115" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="12"/>
-    </row>
-    <row r="116" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="12"/>
-    </row>
-    <row r="117" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="12"/>
-    </row>
-    <row r="118" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="12"/>
-    </row>
-    <row r="119" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="12"/>
-    </row>
-    <row r="120" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="12"/>
-    </row>
-    <row r="121" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="12"/>
-    </row>
-    <row r="122" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="12"/>
-    </row>
-    <row r="123" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="12"/>
-    </row>
-    <row r="124" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="12"/>
-    </row>
-    <row r="125" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="12"/>
-    </row>
-    <row r="126" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="12"/>
-    </row>
-    <row r="127" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="12"/>
-    </row>
-    <row r="128" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="12"/>
-    </row>
-    <row r="129" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="12"/>
-    </row>
-    <row r="130" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="12"/>
-    </row>
-    <row r="131" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="12"/>
-    </row>
-    <row r="132" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="12"/>
-    </row>
-    <row r="133" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="12"/>
-    </row>
-    <row r="134" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="12"/>
-    </row>
-    <row r="135" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="12"/>
-    </row>
-    <row r="136" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="12"/>
-    </row>
-    <row r="137" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="12"/>
-    </row>
-    <row r="138" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="12"/>
-    </row>
-    <row r="139" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="12"/>
-    </row>
-    <row r="140" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="12"/>
-    </row>
-    <row r="141" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="12"/>
-    </row>
-    <row r="142" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="12"/>
-    </row>
-    <row r="143" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="12"/>
-    </row>
-    <row r="144" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="12"/>
-    </row>
-    <row r="145" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="12"/>
-    </row>
-    <row r="146" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="12"/>
-    </row>
-    <row r="147" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="12"/>
-    </row>
-    <row r="148" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="12"/>
-    </row>
-    <row r="149" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="12"/>
-    </row>
-    <row r="150" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="12"/>
-    </row>
-    <row r="151" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="12"/>
-    </row>
-    <row r="152" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="12"/>
-    </row>
-    <row r="153" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="12"/>
-    </row>
-    <row r="154" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="12"/>
-    </row>
-    <row r="155" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="12"/>
-    </row>
-    <row r="156" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="12"/>
-    </row>
-    <row r="157" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="12"/>
-    </row>
-    <row r="158" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="12"/>
-    </row>
-    <row r="159" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="12"/>
-    </row>
-    <row r="160" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="12"/>
-    </row>
-    <row r="161" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="12"/>
-    </row>
-    <row r="162" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="12"/>
-    </row>
-    <row r="163" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="12"/>
-    </row>
-    <row r="164" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="12"/>
-    </row>
-    <row r="165" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="12"/>
-    </row>
-    <row r="166" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="12"/>
-    </row>
-    <row r="167" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="12"/>
-    </row>
-    <row r="168" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="12"/>
-    </row>
-    <row r="169" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="12"/>
-    </row>
-    <row r="170" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="12"/>
-    </row>
-    <row r="171" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="12"/>
-    </row>
-    <row r="172" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="12"/>
-    </row>
-    <row r="173" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="12"/>
-    </row>
-    <row r="174" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="12"/>
-    </row>
-    <row r="175" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="12"/>
-    </row>
-    <row r="176" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="12"/>
-    </row>
-    <row r="177" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="12"/>
-    </row>
-    <row r="178" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="12"/>
-    </row>
-    <row r="179" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="12"/>
-    </row>
-    <row r="180" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="12"/>
-    </row>
-    <row r="181" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="12"/>
-    </row>
-    <row r="182" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="12"/>
-    </row>
-    <row r="183" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="12"/>
-    </row>
-    <row r="184" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="12"/>
-    </row>
-    <row r="185" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="12"/>
-    </row>
-    <row r="186" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="12"/>
-    </row>
-    <row r="187" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="12"/>
-    </row>
-    <row r="188" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="12"/>
-    </row>
-    <row r="189" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="12"/>
-    </row>
-    <row r="190" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="12"/>
-    </row>
-    <row r="191" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="12"/>
-    </row>
-    <row r="192" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="12"/>
-    </row>
-    <row r="193" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="12"/>
-    </row>
-    <row r="194" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="12"/>
-    </row>
-    <row r="195" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="12"/>
-    </row>
-    <row r="196" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="12"/>
-    </row>
-    <row r="197" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="12"/>
-    </row>
-    <row r="198" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="12"/>
-    </row>
-    <row r="199" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="12"/>
-    </row>
-    <row r="200" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="12"/>
-    </row>
-    <row r="201" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="12"/>
-    </row>
-    <row r="202" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="12"/>
-    </row>
-    <row r="203" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="12"/>
-    </row>
-    <row r="204" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="12"/>
-    </row>
-    <row r="205" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="12"/>
-    </row>
-    <row r="206" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="12"/>
-    </row>
-    <row r="207" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="12"/>
-    </row>
-    <row r="208" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="12"/>
-    </row>
-    <row r="209" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="12"/>
-    </row>
-    <row r="210" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="12"/>
-    </row>
-    <row r="211" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="12"/>
-    </row>
-    <row r="212" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="12"/>
-    </row>
-    <row r="213" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="12"/>
-    </row>
-    <row r="214" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="12"/>
-    </row>
-    <row r="215" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="12"/>
-    </row>
-    <row r="216" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="12"/>
-    </row>
-    <row r="217" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="12"/>
-    </row>
-    <row r="218" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="12"/>
-    </row>
-    <row r="219" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="12"/>
-    </row>
-    <row r="220" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="12"/>
-    </row>
-    <row r="221" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B221" s="12"/>
-    </row>
-    <row r="222" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B222" s="12"/>
-    </row>
-    <row r="223" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B223" s="12"/>
-    </row>
-    <row r="224" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B224" s="12"/>
-    </row>
-    <row r="225" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B225" s="12"/>
-    </row>
-    <row r="226" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B226" s="12"/>
-    </row>
-    <row r="227" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B227" s="12"/>
-    </row>
-    <row r="228" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B228" s="12"/>
-    </row>
-    <row r="229" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B229" s="12"/>
-    </row>
-    <row r="230" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B230" s="12"/>
-    </row>
-    <row r="231" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B231" s="12"/>
-    </row>
-    <row r="232" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B232" s="12"/>
-    </row>
-    <row r="233" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B233" s="12"/>
-    </row>
-    <row r="234" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B234" s="12"/>
-    </row>
-    <row r="235" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B235" s="12"/>
-    </row>
-    <row r="236" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B236" s="12"/>
-    </row>
-    <row r="237" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B237" s="12"/>
-    </row>
-    <row r="238" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B238" s="12"/>
-    </row>
-    <row r="239" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B239" s="12"/>
-    </row>
-    <row r="240" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B240" s="12"/>
-    </row>
-    <row r="241" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B241" s="12"/>
-    </row>
-    <row r="242" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B242" s="12"/>
-    </row>
-    <row r="243" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B243" s="12"/>
-    </row>
-    <row r="244" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B244" s="12"/>
-    </row>
-    <row r="245" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B245" s="12"/>
-    </row>
-    <row r="246" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B246" s="12"/>
-    </row>
-    <row r="247" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B247" s="12"/>
-    </row>
-    <row r="248" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B248" s="12"/>
-    </row>
-    <row r="249" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B249" s="12"/>
-    </row>
-    <row r="250" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B250" s="12"/>
-    </row>
-    <row r="251" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B251" s="12"/>
-    </row>
-    <row r="252" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B252" s="12"/>
-    </row>
-    <row r="253" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B253" s="12"/>
-    </row>
-    <row r="254" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B254" s="12"/>
-    </row>
-    <row r="255" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B255" s="12"/>
-    </row>
-    <row r="256" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B256" s="12"/>
-    </row>
-    <row r="257" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B257" s="12"/>
+    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="9"/>
+    </row>
+    <row r="215" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="9"/>
+    </row>
+    <row r="217" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="9"/>
+    </row>
+    <row r="218" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="9"/>
+    </row>
+    <row r="222" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="9"/>
+    </row>
+    <row r="223" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="9"/>
+    </row>
+    <row r="224" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="9"/>
+    </row>
+    <row r="225" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="9"/>
+    </row>
+    <row r="226" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B226" s="9"/>
+    </row>
+    <row r="227" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="9"/>
+    </row>
+    <row r="228" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B229" s="9"/>
+    </row>
+    <row r="230" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="9"/>
+    </row>
+    <row r="231" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="9"/>
+    </row>
+    <row r="232" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B232" s="9"/>
+    </row>
+    <row r="233" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B233" s="9"/>
+    </row>
+    <row r="234" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B235" s="9"/>
+    </row>
+    <row r="236" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B236" s="9"/>
+    </row>
+    <row r="237" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B237" s="9"/>
+    </row>
+    <row r="238" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B238" s="9"/>
+    </row>
+    <row r="239" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B239" s="9"/>
+    </row>
+    <row r="240" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B240" s="9"/>
+    </row>
+    <row r="241" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B241" s="9"/>
+    </row>
+    <row r="242" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B242" s="9"/>
+    </row>
+    <row r="243" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B243" s="9"/>
+    </row>
+    <row r="244" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B244" s="9"/>
+    </row>
+    <row r="245" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B245" s="9"/>
+    </row>
+    <row r="246" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B246" s="9"/>
+    </row>
+    <row r="247" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B247" s="9"/>
+    </row>
+    <row r="248" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B248" s="9"/>
+    </row>
+    <row r="249" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B249" s="9"/>
+    </row>
+    <row r="250" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B250" s="9"/>
+    </row>
+    <row r="251" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B251" s="9"/>
+    </row>
+    <row r="252" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B252" s="9"/>
+    </row>
+    <row r="253" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B253" s="9"/>
+    </row>
+    <row r="254" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B254" s="9"/>
+    </row>
+    <row r="255" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B255" s="9"/>
+    </row>
+    <row r="256" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B256" s="9"/>
+    </row>
+    <row r="257" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B257" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B4:B12"/>
@@ -2770,11 +2935,580 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B28:B37"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F39:G39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="4">
+        <v>108633</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="4">
+        <v>105224</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="16"/>
+      <c r="C4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="22">
+        <v>111865</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="23">
+        <v>102547</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="25">
+        <v>7</v>
+      </c>
+      <c r="G5" s="25">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25">
+        <v>12</v>
+      </c>
+      <c r="I5" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="4">
+        <v>115529</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="4">
+        <v>117941</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="16"/>
+      <c r="C9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="4">
+        <v>131545</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="16"/>
+      <c r="C10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="22">
+        <v>109067</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="4">
+        <v>91074</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="4">
+        <v>108735</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="4">
+        <v>118284</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="22">
+        <v>123647</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C16" s="19"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="4">
+        <v>93417</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="4">
+        <v>99359</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="4">
+        <v>110750</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="4">
+        <v>118647</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Week_02/gc-table-data.xlsx
+++ b/Week_02/gc-table-data.xlsx
@@ -735,18 +735,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +761,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,14 +1104,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="24" t="s">
         <v>144</v>
       </c>
       <c r="C4" t="s">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="14"/>
+      <c r="B5" s="24"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
+      <c r="B10" s="24"/>
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -1403,14 +1403,14 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
+      <c r="B17" s="24"/>
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1702,14 +1702,14 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="16"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="16"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="16"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="16"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="16"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="16"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>129</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="16"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>130</v>
       </c>
@@ -2028,10 +2028,10 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2066,7 +2066,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="24" t="s">
         <v>146</v>
       </c>
       <c r="C41" t="s">
@@ -2084,10 +2084,10 @@
       <c r="G41" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="23"/>
       <c r="J41" t="s">
         <v>23</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B42" s="14"/>
+      <c r="B42" s="24"/>
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -2112,10 +2112,10 @@
       <c r="G42" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="23"/>
       <c r="J42" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B43" s="14"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2137,10 +2137,10 @@
       <c r="G43" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="23"/>
       <c r="J43" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B44" s="14"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B45" s="14"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B46" s="14"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B47" s="14"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B48" s="14"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="1" t="s">
         <v>30</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B49" s="14"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
@@ -2921,11 +2921,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B4:B12"/>
@@ -2935,6 +2930,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B28:B37"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,42 +2964,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="4">
         <v>108633</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F2" s="4">
@@ -3022,14 +3022,14 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="16"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>105224</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>172</v>
       </c>
       <c r="F3" s="4">
@@ -3052,14 +3052,14 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="16"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>111865</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>173</v>
       </c>
       <c r="F4" s="4">
@@ -3082,40 +3082,40 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="16"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>102547</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="25">
-        <v>7</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="21">
+        <v>7</v>
+      </c>
+      <c r="G5" s="21">
         <v>8</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="21">
         <v>12</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="21">
         <v>3.9</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="21">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="19"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3124,7 +3124,7 @@
       <c r="D7" s="4">
         <v>115529</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="4">
@@ -3147,14 +3147,14 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="16"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D8" s="4">
         <v>117941</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="4">
@@ -3177,14 +3177,14 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D9" s="4">
         <v>131545</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="4">
@@ -3207,14 +3207,14 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>109067</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="4">
@@ -3237,7 +3237,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3249,7 +3249,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3258,7 +3258,7 @@
       <c r="D12" s="4">
         <v>91074</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>163</v>
       </c>
       <c r="F12" s="4">
@@ -3281,14 +3281,14 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="4">
         <v>108735</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F13" s="4">
@@ -3311,14 +3311,14 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D14" s="4">
         <v>118284</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>165</v>
       </c>
       <c r="F14" s="4">
@@ -3341,14 +3341,14 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="18">
         <v>123647</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="16" t="s">
         <v>166</v>
       </c>
       <c r="F15" s="4">
@@ -3371,7 +3371,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="19"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3382,16 +3382,16 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>93417</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F17" s="4">
@@ -3414,14 +3414,14 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="16"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D18" s="4">
         <v>99359</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="4">
@@ -3444,14 +3444,14 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D19" s="4">
         <v>110750</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F19" s="4">
@@ -3474,14 +3474,14 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="16"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D20" s="4">
         <v>118647</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F20" s="4">
